--- a/apps/es/resources/templates/ES101/ES101-v1.xlsx
+++ b/apps/es/resources/templates/ES101/ES101-v1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Category</t>
   </si>
@@ -159,12 +159,15 @@
   <si>
     <t>Transfer No. / Payment Record Filename</t>
   </si>
+  <si>
+    <t>Cash Advancement SN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -343,10 +346,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="27">
@@ -790,28 +789,28 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +981,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="yli" refreshedDate="45376.692556712966" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="yli" refreshedDate="45811.718438425924" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="C9:O199944" sheet="data"/>
   </cacheSource>
@@ -1038,7 +1037,7 @@
     <cacheField name="Transaction Type" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="Transfer No. / E-cheque Filename" numFmtId="0">
+    <cacheField name="Transfer No. / Payment Record Filename" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Claimer" numFmtId="0">
@@ -1520,11 +1519,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,8 +1542,8 @@
     <col min="12" max="12" width="37.25" style="11" customWidth="1"/>
     <col min="13" max="13" width="18.375" style="11" customWidth="1"/>
     <col min="14" max="14" width="15.125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="9" style="8" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="21.25" style="8" customWidth="1"/>
     <col min="17" max="17" width="8.875" style="8" customWidth="1"/>
     <col min="18" max="18" width="10.125" style="8" customWidth="1"/>
     <col min="19" max="26" width="9" style="8" customWidth="1"/>
@@ -1603,7 +1602,7 @@
     <col min="126" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="M1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1634,7 @@
       <c r="M2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1652,7 +1651,7 @@
       <c r="M3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1668,7 @@
       <c r="M4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1685,7 @@
       <c r="M5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1703,7 +1702,7 @@
       <c r="M6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1719,7 @@
       <c r="M7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1730,7 +1729,7 @@
       <c r="M8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1773,8 +1772,11 @@
       <c r="O9" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="P9" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1791,8 +1793,9 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="25"/>
       <c r="D11" s="21"/>
       <c r="E11" s="19"/>
@@ -1806,6 +1809,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
